--- a/Time 4D/Time 4D — копия.xlsx
+++ b/Time 4D/Time 4D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 4D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847F8B4-AA67-4A4D-9823-91DDE969F36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6786244-2310-46FB-8935-D35B01599A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Попытка</t>
   </si>
@@ -88,117 +88,6 @@
   </si>
   <si>
     <t>Фрактал Жюлиа 4D</t>
-  </si>
-  <si>
-    <t>1.210</t>
-  </si>
-  <si>
-    <t>1.207</t>
-  </si>
-  <si>
-    <t>1.221</t>
-  </si>
-  <si>
-    <t>1.209</t>
-  </si>
-  <si>
-    <t>1.211</t>
-  </si>
-  <si>
-    <t>1.203</t>
-  </si>
-  <si>
-    <t>1.206</t>
-  </si>
-  <si>
-    <t>1.229</t>
-  </si>
-  <si>
-    <t>9.488</t>
-  </si>
-  <si>
-    <t>9.460</t>
-  </si>
-  <si>
-    <t>9.459</t>
-  </si>
-  <si>
-    <t>9.458</t>
-  </si>
-  <si>
-    <t>9.507</t>
-  </si>
-  <si>
-    <t>9.470</t>
-  </si>
-  <si>
-    <t>9.453</t>
-  </si>
-  <si>
-    <t>9.461</t>
-  </si>
-  <si>
-    <t>9.462</t>
-  </si>
-  <si>
-    <t>31.906</t>
-  </si>
-  <si>
-    <t>31.746</t>
-  </si>
-  <si>
-    <t>31.732</t>
-  </si>
-  <si>
-    <t>31.717</t>
-  </si>
-  <si>
-    <t>32.954</t>
-  </si>
-  <si>
-    <t>31.709</t>
-  </si>
-  <si>
-    <t>31.820</t>
-  </si>
-  <si>
-    <t>31.825</t>
-  </si>
-  <si>
-    <t>31.824</t>
-  </si>
-  <si>
-    <t>31.926</t>
-  </si>
-  <si>
-    <t>75.713</t>
-  </si>
-  <si>
-    <t>74.959</t>
-  </si>
-  <si>
-    <t>75.017</t>
-  </si>
-  <si>
-    <t>75.446</t>
-  </si>
-  <si>
-    <t>74.968</t>
-  </si>
-  <si>
-    <t>75.101</t>
-  </si>
-  <si>
-    <t>75.048</t>
-  </si>
-  <si>
-    <t>75.027</t>
-  </si>
-  <si>
-    <t>75.269</t>
-  </si>
-  <si>
-    <t>75.020</t>
   </si>
 </sst>
 </file>
@@ -726,16 +615,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>20.92055267702936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>22.162453183520604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>23.208187899941827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>23.14938705106881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +678,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Сторона квадрата в пикселях для вычисления</a:t>
+                  <a:t>Сторона куба в пикселях для вычисления</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1926,7 +1815,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:J20"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2046,110 +1935,150 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9.4879999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.905999999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>75.712999999999994</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.2229999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="2">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E9" s="2">
+        <v>31.745999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>74.959000000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3.2229999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="C10" s="2">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.4589999999999996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>31.731999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>75.016999999999996</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>3.2240000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="2">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.4580000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>31.716999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75.445999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3.2240000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="2">
+        <v>1.2110000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E12" s="2">
+        <v>32.954000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74.968000000000004</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="J12" s="4">
+        <v>3.2570000000000001</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -2157,110 +2086,150 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="2">
+        <v>1.2030000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.5069999999999997</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31.709</v>
+      </c>
+      <c r="F13" s="2">
+        <v>75.100999999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <v>3.262</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="2">
+        <v>1.206</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E14" s="2">
+        <v>31.82</v>
+      </c>
+      <c r="F14" s="2">
+        <v>75.048000000000002</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1.3759999999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.2629999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9.4529999999999994</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31.824999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>75.027000000000001</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3.262</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="2">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.4610000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.824000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>75.269000000000005</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>3.2629999999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="2">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9.4619999999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>31.925999999999998</v>
+      </c>
+      <c r="F17" s="2">
+        <v>75.02</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="J17" s="4">
+        <v>3.2650000000000001</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
@@ -2341,37 +2310,37 @@
         <v>18</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="2" t="e">
+      <c r="C22" s="2">
         <f>AVERAGE(C8:C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="2" t="e">
+        <v>1.2113</v>
+      </c>
+      <c r="D22" s="2">
         <f t="shared" ref="D22:J22" si="0">AVERAGE(D8:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="2" t="e">
+        <v>9.4678000000000004</v>
+      </c>
+      <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="2" t="e">
+        <v>31.915900000000001</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4" t="e">
+        <v>75.156800000000004</v>
+      </c>
+      <c r="G22" s="4">
+        <f>AVERAGE(G8:G17)</f>
+        <v>5.7900000000000007E-2</v>
+      </c>
+      <c r="H22" s="4">
+        <f>AVERAGE(H8:H17)</f>
+        <v>0.42719999999999991</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="4" t="e">
+        <v>1.3752</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>3.2465999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2443,24 +2412,24 @@
         <v>18</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="11" t="e">
+      <c r="C27" s="11">
         <f>C22/G22</f>
-        <v>#DIV/0!</v>
+        <v>20.92055267702936</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11" t="e">
+      <c r="E27" s="11">
         <f>D22/H22</f>
-        <v>#DIV/0!</v>
+        <v>22.162453183520604</v>
       </c>
       <c r="F27" s="11"/>
-      <c r="G27" s="11" t="e">
+      <c r="G27" s="11">
         <f>E22/I22</f>
-        <v>#DIV/0!</v>
+        <v>23.208187899941827</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11" t="e">
+      <c r="I27" s="11">
         <f>F22/J22</f>
-        <v>#DIV/0!</v>
+        <v>23.14938705106881</v>
       </c>
       <c r="J27" s="11"/>
     </row>
